--- a/tcl sigrity функции встроенные.xlsx
+++ b/tcl sigrity функции встроенные.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пособие\tcl\sigrity-rus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E61E978-12AD-4A62-A824-21D8470B72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03E900-A8BC-4C3F-BD68-578620791896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>$pwrnets</t>
   </si>
@@ -67,16 +76,26 @@
   </si>
   <si>
     <t>$L_FILE_TITLE</t>
+  </si>
+  <si>
+    <t>Для вывода в консоль используется команда puts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G9:K15"/>
+  <dimension ref="A2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F11" sqref="F11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -397,13 +417,19 @@
     <col min="9" max="9" width="25.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="7:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="J9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H11" t="s">
@@ -413,8 +439,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H12" t="s">
@@ -424,7 +451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="7:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G13" t="s">
         <v>3</v>
       </c>
@@ -441,7 +468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="7:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G14" t="s">
         <v>8</v>
       </c>
@@ -455,7 +482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="7:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G15" t="s">
         <v>13</v>
       </c>
